--- a/1. RDBMS/JAVA 15 - NGOCHUYEN - Database Design.xlsx
+++ b/1. RDBMS/JAVA 15 - NGOCHUYEN - Database Design.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD7FE9-1BC9-4282-87D4-2810A9ED6EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC06FC1B-12B1-43FC-BF72-633275C2EA39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>MatHang</t>
   </si>
@@ -79,18 +79,9 @@
     <t>DiaChiGiaoHang</t>
   </si>
   <si>
-    <t>SDTNhanHang</t>
-  </si>
-  <si>
-    <t>NgayDat</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>MangXaHoi</t>
-  </si>
-  <si>
     <t>TinhTrangDonHang</t>
   </si>
   <si>
@@ -100,12 +91,6 @@
     <t>DanhSachMatHang</t>
   </si>
   <si>
-    <t>MatHang-SoLuong</t>
-  </si>
-  <si>
-    <t>Tongtien</t>
-  </si>
-  <si>
     <t>MaTT</t>
   </si>
   <si>
@@ -149,14 +134,61 @@
   </si>
   <si>
     <t>TenNSX</t>
+  </si>
+  <si>
+    <t>MaLH</t>
+  </si>
+  <si>
+    <t>TenLH</t>
+  </si>
+  <si>
+    <t>HoaDon</t>
+  </si>
+  <si>
+    <t>SoTienCanThanhToan</t>
+  </si>
+  <si>
+    <t>NgayXuatHoaDon</t>
+  </si>
+  <si>
+    <t>MaHD</t>
+  </si>
+  <si>
+    <t>MatHang - SoLuong</t>
+  </si>
+  <si>
+    <t>NgayDatHang</t>
+  </si>
+  <si>
+    <t>TaiKhoanMXH</t>
+  </si>
+  <si>
+    <t>NgayThamGia</t>
+  </si>
+  <si>
+    <t>SDTNguoiNhan</t>
+  </si>
+  <si>
+    <t>TongTien</t>
+  </si>
+  <si>
+    <t>KhuyenMai-ThoiGian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -205,10 +237,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,290 +522,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:N14"/>
+  <dimension ref="C3:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
